--- a/Layers_design.xlsx
+++ b/Layers_design.xlsx
@@ -333,6 +333,63 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>161925</xdr:colOff>
+          <xdr:row>35</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1025" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -597,11 +654,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1013,5 +1070,34 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="1025" r:id="rId4">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>161925</xdr:colOff>
+                <xdr:row>35</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.DSMT4" shapeId="1025" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
 </worksheet>
 </file>